--- a/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_인공지능.xlsx
+++ b/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_인공지능.xlsx
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>53</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>54</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>38</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>55</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>57</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>56</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>47</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>88</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>59</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>61</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>152</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>237</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>39</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>63</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>41</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>53</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>38</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>54</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>55</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>57</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>56</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>47</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>59</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>88</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>61</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>83</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>190</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>177</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>39</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>92</v>
